--- a/Code/Results/Cases/Case_0_197/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_197/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017705101846314</v>
+        <v>1.047222114997</v>
       </c>
       <c r="D2">
-        <v>1.031189665709324</v>
+        <v>1.054555962832996</v>
       </c>
       <c r="E2">
-        <v>1.031046359312653</v>
+        <v>1.054557186606952</v>
       </c>
       <c r="F2">
-        <v>1.040237020485888</v>
+        <v>1.064901180420221</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05640181745251</v>
+        <v>1.041657943018336</v>
       </c>
       <c r="J2">
-        <v>1.03936885131432</v>
+        <v>1.052272332560762</v>
       </c>
       <c r="K2">
-        <v>1.042230929299259</v>
+        <v>1.057298848598588</v>
       </c>
       <c r="L2">
-        <v>1.042089471425362</v>
+        <v>1.057300069001437</v>
       </c>
       <c r="M2">
-        <v>1.051162868222656</v>
+        <v>1.06761586801368</v>
       </c>
       <c r="N2">
-        <v>1.04084487430046</v>
+        <v>1.053766679970322</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.022271599033239</v>
+        <v>1.048186582068708</v>
       </c>
       <c r="D3">
-        <v>1.035015594053032</v>
+        <v>1.055410390718746</v>
       </c>
       <c r="E3">
-        <v>1.034836152710013</v>
+        <v>1.055406761641134</v>
       </c>
       <c r="F3">
-        <v>1.044317140521675</v>
+        <v>1.065816379215227</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057646368318841</v>
+        <v>1.041826882224083</v>
       </c>
       <c r="J3">
-        <v>1.042172997193254</v>
+        <v>1.052885111579656</v>
       </c>
       <c r="K3">
-        <v>1.045219220567219</v>
+        <v>1.057966437851084</v>
       </c>
       <c r="L3">
-        <v>1.04504188728689</v>
+        <v>1.057962818048283</v>
       </c>
       <c r="M3">
-        <v>1.054412718331429</v>
+        <v>1.068346111644549</v>
       </c>
       <c r="N3">
-        <v>1.043653002388182</v>
+        <v>1.054380329205709</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02516522261015</v>
+        <v>1.048810849987736</v>
       </c>
       <c r="D4">
-        <v>1.037444910531683</v>
+        <v>1.055963728759096</v>
       </c>
       <c r="E4">
-        <v>1.037243174625573</v>
+        <v>1.055957023272398</v>
       </c>
       <c r="F4">
-        <v>1.046907880058541</v>
+        <v>1.066409090969609</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058419551646844</v>
+        <v>1.041934314458932</v>
       </c>
       <c r="J4">
-        <v>1.043946393121183</v>
+        <v>1.053281184469461</v>
       </c>
       <c r="K4">
-        <v>1.047111474754191</v>
+        <v>1.058398233924547</v>
       </c>
       <c r="L4">
-        <v>1.046911962791305</v>
+        <v>1.058391544712878</v>
       </c>
       <c r="M4">
-        <v>1.056471305074815</v>
+        <v>1.068818510833508</v>
       </c>
       <c r="N4">
-        <v>1.04542891674174</v>
+        <v>1.054776964564448</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026367555827785</v>
+        <v>1.049073337513307</v>
       </c>
       <c r="D5">
-        <v>1.038455469742797</v>
+        <v>1.056196462301687</v>
       </c>
       <c r="E5">
-        <v>1.03824461416224</v>
+        <v>1.056188478737683</v>
       </c>
       <c r="F5">
-        <v>1.047985595983625</v>
+        <v>1.06665838934288</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058737058768334</v>
+        <v>1.04197902752631</v>
       </c>
       <c r="J5">
-        <v>1.044682385124819</v>
+        <v>1.053447588087189</v>
       </c>
       <c r="K5">
-        <v>1.047897373585486</v>
+        <v>1.058579717085143</v>
       </c>
       <c r="L5">
-        <v>1.047688779331823</v>
+        <v>1.058571752467039</v>
       </c>
       <c r="M5">
-        <v>1.057326455032536</v>
+        <v>1.069017078167228</v>
       </c>
       <c r="N5">
-        <v>1.046165953938441</v>
+        <v>1.0549436044944</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026568617586598</v>
+        <v>1.049117412951672</v>
       </c>
       <c r="D6">
-        <v>1.038624528350415</v>
+        <v>1.056235545712303</v>
       </c>
       <c r="E6">
-        <v>1.038412156165289</v>
+        <v>1.056227348447263</v>
       </c>
       <c r="F6">
-        <v>1.048165889860691</v>
+        <v>1.066700254770582</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058789931765139</v>
+        <v>1.041986508553277</v>
       </c>
       <c r="J6">
-        <v>1.044805409927572</v>
+        <v>1.053475521774921</v>
       </c>
       <c r="K6">
-        <v>1.048028774652493</v>
+        <v>1.058610186299473</v>
       </c>
       <c r="L6">
-        <v>1.047818669438157</v>
+        <v>1.058602008413155</v>
       </c>
       <c r="M6">
-        <v>1.057469444714047</v>
+        <v>1.06905041674371</v>
       </c>
       <c r="N6">
-        <v>1.046289153450525</v>
+        <v>1.054971577851173</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.025181343177387</v>
+        <v>1.048814357182147</v>
       </c>
       <c r="D7">
-        <v>1.03745845534909</v>
+        <v>1.055966838124651</v>
       </c>
       <c r="E7">
-        <v>1.037256596600864</v>
+        <v>1.055960115500329</v>
       </c>
       <c r="F7">
-        <v>1.046922324965899</v>
+        <v>1.066412421627687</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058423823620839</v>
+        <v>1.041934913691899</v>
       </c>
       <c r="J7">
-        <v>1.043956264608852</v>
+        <v>1.053283408378282</v>
       </c>
       <c r="K7">
-        <v>1.047122013327127</v>
+        <v>1.058400659085343</v>
       </c>
       <c r="L7">
-        <v>1.046922379064738</v>
+        <v>1.058393952772792</v>
       </c>
       <c r="M7">
-        <v>1.056482771608309</v>
+        <v>1.06882116421654</v>
       </c>
       <c r="N7">
-        <v>1.045438802248054</v>
+        <v>1.054779191631474</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01926135717405</v>
+        <v>1.047548020568561</v>
       </c>
       <c r="D8">
-        <v>1.032492469830903</v>
+        <v>1.054844623427797</v>
       </c>
       <c r="E8">
-        <v>1.032336721820373</v>
+        <v>1.054844193961761</v>
       </c>
       <c r="F8">
-        <v>1.041626378730942</v>
+        <v>1.065210368260329</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056829164614946</v>
+        <v>1.041715426216682</v>
       </c>
       <c r="J8">
-        <v>1.040325209179251</v>
+        <v>1.052479513787404</v>
       </c>
       <c r="K8">
-        <v>1.043249587226322</v>
+        <v>1.057524499876415</v>
       </c>
       <c r="L8">
-        <v>1.04309578693406</v>
+        <v>1.057524071564523</v>
       </c>
       <c r="M8">
-        <v>1.052270538276289</v>
+        <v>1.067862680823009</v>
       </c>
       <c r="N8">
-        <v>1.041802590303254</v>
+        <v>1.053974155418069</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008336707585135</v>
+        <v>1.045318095953073</v>
       </c>
       <c r="D9">
-        <v>1.023369838238718</v>
+        <v>1.052870766366006</v>
       </c>
       <c r="E9">
-        <v>1.023304020493891</v>
+        <v>1.052881914531584</v>
       </c>
       <c r="F9">
-        <v>1.031897672665365</v>
+        <v>1.063096217405814</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053765899329894</v>
+        <v>1.041314273059709</v>
       </c>
       <c r="J9">
-        <v>1.033598471348241</v>
+        <v>1.051059653394548</v>
       </c>
       <c r="K9">
-        <v>1.036094802739506</v>
+        <v>1.055979274175746</v>
       </c>
       <c r="L9">
-        <v>1.036029991611552</v>
+        <v>1.055990387238473</v>
       </c>
       <c r="M9">
-        <v>1.044493594646584</v>
+        <v>1.066172865579914</v>
       </c>
       <c r="N9">
-        <v>1.035066299732957</v>
+        <v>1.052552278660595</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000686289153222</v>
+        <v>1.043832558219635</v>
       </c>
       <c r="D10">
-        <v>1.017012446513627</v>
+        <v>1.05155737975778</v>
       </c>
       <c r="E10">
-        <v>1.017012943761747</v>
+        <v>1.051576575148722</v>
       </c>
       <c r="F10">
-        <v>1.025117828854524</v>
+        <v>1.061689568558229</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051542617565464</v>
+        <v>1.04103720512478</v>
       </c>
       <c r="J10">
-        <v>1.028872704628905</v>
+        <v>1.050110923134937</v>
       </c>
       <c r="K10">
-        <v>1.031081182705683</v>
+        <v>1.054948299240238</v>
       </c>
       <c r="L10">
-        <v>1.031081671360183</v>
+        <v>1.054967428265823</v>
       </c>
       <c r="M10">
-        <v>1.039047914227383</v>
+        <v>1.065045824232682</v>
       </c>
       <c r="N10">
-        <v>1.030333821882827</v>
+        <v>1.051602201095195</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9972777337665734</v>
+        <v>1.043189570837474</v>
       </c>
       <c r="D11">
-        <v>1.014188070993045</v>
+        <v>1.050989282256328</v>
       </c>
       <c r="E11">
-        <v>1.014218921529408</v>
+        <v>1.051012040298942</v>
       </c>
       <c r="F11">
-        <v>1.022105719526072</v>
+        <v>1.061081151458018</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050534325668108</v>
+        <v>1.040914955379068</v>
       </c>
       <c r="J11">
-        <v>1.026764202359357</v>
+        <v>1.049699612968577</v>
       </c>
       <c r="K11">
-        <v>1.028847291026655</v>
+        <v>1.054501693238026</v>
       </c>
       <c r="L11">
-        <v>1.028877580775228</v>
+        <v>1.054524369551005</v>
       </c>
       <c r="M11">
-        <v>1.036622457512626</v>
+        <v>1.064557699221326</v>
       </c>
       <c r="N11">
-        <v>1.028222325298207</v>
+        <v>1.051190306821221</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9959964371297082</v>
+        <v>1.042950776609083</v>
       </c>
       <c r="D12">
-        <v>1.013127650207662</v>
+        <v>1.050778358089694</v>
       </c>
       <c r="E12">
-        <v>1.01317003348335</v>
+        <v>1.050802451213908</v>
       </c>
       <c r="F12">
-        <v>1.020974802905267</v>
+        <v>1.060855260397048</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050152708011398</v>
+        <v>1.040869204840862</v>
       </c>
       <c r="J12">
-        <v>1.0259712067453</v>
+        <v>1.049546759304024</v>
       </c>
       <c r="K12">
-        <v>1.028007593978611</v>
+        <v>1.054335776789357</v>
       </c>
       <c r="L12">
-        <v>1.028049192504172</v>
+        <v>1.054359782190234</v>
       </c>
       <c r="M12">
-        <v>1.03571089704973</v>
+        <v>1.064376372645946</v>
       </c>
       <c r="N12">
-        <v>1.027428203539421</v>
+        <v>1.051037236086931</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9962719813085178</v>
+        <v>1.043001996962423</v>
       </c>
       <c r="D13">
-        <v>1.013355635947657</v>
+        <v>1.050823597831629</v>
       </c>
       <c r="E13">
-        <v>1.013395533525363</v>
+        <v>1.050847404044198</v>
       </c>
       <c r="F13">
-        <v>1.021217945457175</v>
+        <v>1.060903710153411</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050234891362534</v>
+        <v>1.040879033931932</v>
       </c>
       <c r="J13">
-        <v>1.026141758337049</v>
+        <v>1.049579550302035</v>
       </c>
       <c r="K13">
-        <v>1.028188169131396</v>
+        <v>1.054371367640744</v>
       </c>
       <c r="L13">
-        <v>1.028227330885743</v>
+        <v>1.054395087428817</v>
       </c>
       <c r="M13">
-        <v>1.035906919750368</v>
+        <v>1.064415268482443</v>
       </c>
       <c r="N13">
-        <v>1.027598997333993</v>
+        <v>1.05107007365192</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.997172136462275</v>
+        <v>1.043169831213122</v>
       </c>
       <c r="D14">
-        <v>1.014100650662987</v>
+        <v>1.050971845303861</v>
       </c>
       <c r="E14">
-        <v>1.014132449159666</v>
+        <v>1.05099471346488</v>
       </c>
       <c r="F14">
-        <v>1.022012487800571</v>
+        <v>1.061062477141274</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050502927196491</v>
+        <v>1.040911180588985</v>
       </c>
       <c r="J14">
-        <v>1.0266988558482</v>
+        <v>1.049686979556657</v>
       </c>
       <c r="K14">
-        <v>1.028778086818886</v>
+        <v>1.054487979079523</v>
       </c>
       <c r="L14">
-        <v>1.028809306411371</v>
+        <v>1.054510765021385</v>
       </c>
       <c r="M14">
-        <v>1.036547327695761</v>
+        <v>1.064542711013942</v>
       </c>
       <c r="N14">
-        <v>1.02815688598751</v>
+        <v>1.051177655468407</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.997724711631149</v>
+        <v>1.043273244747562</v>
       </c>
       <c r="D15">
-        <v>1.014558160920313</v>
+        <v>1.051063197764335</v>
       </c>
       <c r="E15">
-        <v>1.01458500389197</v>
+        <v>1.05108548951876</v>
       </c>
       <c r="F15">
-        <v>1.022500411279907</v>
+        <v>1.06116031229608</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050667125455589</v>
+        <v>1.040930941966827</v>
       </c>
       <c r="J15">
-        <v>1.027040788679898</v>
+        <v>1.049753160387724</v>
       </c>
       <c r="K15">
-        <v>1.029140224087319</v>
+        <v>1.054559823675443</v>
       </c>
       <c r="L15">
-        <v>1.029166582278884</v>
+        <v>1.054582035763403</v>
       </c>
       <c r="M15">
-        <v>1.036940478839046</v>
+        <v>1.064621230581192</v>
       </c>
       <c r="N15">
-        <v>1.028499304403049</v>
+        <v>1.051243930283845</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00091041651049</v>
+        <v>1.043875236727373</v>
       </c>
       <c r="D16">
-        <v>1.017198335283777</v>
+        <v>1.051595095426352</v>
       </c>
       <c r="E16">
-        <v>1.017196853609294</v>
+        <v>1.051614056023474</v>
       </c>
       <c r="F16">
-        <v>1.025316072169552</v>
+        <v>1.061729961449298</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05160855357677</v>
+        <v>1.041045270507265</v>
       </c>
       <c r="J16">
-        <v>1.029011289907226</v>
+        <v>1.050138209902277</v>
       </c>
       <c r="K16">
-        <v>1.031228072749763</v>
+        <v>1.05497793515492</v>
       </c>
       <c r="L16">
-        <v>1.031226616595189</v>
+        <v>1.054996830366821</v>
       </c>
       <c r="M16">
-        <v>1.039207420523634</v>
+        <v>1.065078217287722</v>
       </c>
       <c r="N16">
-        <v>1.030472603968139</v>
+        <v>1.051629526612875</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002882507348446</v>
+        <v>1.044252920645334</v>
       </c>
       <c r="D17">
-        <v>1.01883489348093</v>
+        <v>1.051928904331045</v>
       </c>
       <c r="E17">
-        <v>1.018816091362708</v>
+        <v>1.051945796313327</v>
       </c>
       <c r="F17">
-        <v>1.027061393031881</v>
+        <v>1.062087467920679</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052186713017098</v>
+        <v>1.041116376474058</v>
       </c>
       <c r="J17">
-        <v>1.030230363945558</v>
+        <v>1.050379607085373</v>
       </c>
       <c r="K17">
-        <v>1.032520546087396</v>
+        <v>1.055240156073583</v>
       </c>
       <c r="L17">
-        <v>1.032502058125987</v>
+        <v>1.055256991131031</v>
       </c>
       <c r="M17">
-        <v>1.040611011044851</v>
+        <v>1.065364844669087</v>
       </c>
       <c r="N17">
-        <v>1.031693409231435</v>
+        <v>1.051871266607659</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.004023601349963</v>
+        <v>1.044473242341579</v>
       </c>
       <c r="D18">
-        <v>1.019782603783991</v>
+        <v>1.052123667954738</v>
       </c>
       <c r="E18">
-        <v>1.019753856171917</v>
+        <v>1.052139360888448</v>
       </c>
       <c r="F18">
-        <v>1.028072081615569</v>
+        <v>1.062296060063983</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052519561549963</v>
+        <v>1.041157631593645</v>
       </c>
       <c r="J18">
-        <v>1.030935458949709</v>
+        <v>1.05052036131659</v>
       </c>
       <c r="K18">
-        <v>1.033268382566783</v>
+        <v>1.055393086983865</v>
       </c>
       <c r="L18">
-        <v>1.033240106743625</v>
+        <v>1.05540872775204</v>
       </c>
       <c r="M18">
-        <v>1.041423230487565</v>
+        <v>1.065532019011689</v>
       </c>
       <c r="N18">
-        <v>1.032399505551367</v>
+        <v>1.05201222072603</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.004411149059953</v>
+        <v>1.044548370571681</v>
       </c>
       <c r="D19">
-        <v>1.0201046004498</v>
+        <v>1.052190087207793</v>
       </c>
       <c r="E19">
-        <v>1.020072488000022</v>
+        <v>1.052205372575356</v>
       </c>
       <c r="F19">
-        <v>1.028415475218613</v>
+        <v>1.062367195523086</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052632318116802</v>
+        <v>1.041171661224253</v>
       </c>
       <c r="J19">
-        <v>1.031174878830293</v>
+        <v>1.050568346590109</v>
       </c>
       <c r="K19">
-        <v>1.033522364539819</v>
+        <v>1.055445229368808</v>
       </c>
       <c r="L19">
-        <v>1.03349077586435</v>
+        <v>1.055460464164235</v>
       </c>
       <c r="M19">
-        <v>1.041699093497185</v>
+        <v>1.065589019317288</v>
       </c>
       <c r="N19">
-        <v>1.032639265435644</v>
+        <v>1.05206027414414</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.002671877188104</v>
+        <v>1.044212396137608</v>
       </c>
       <c r="D20">
-        <v>1.018660020477422</v>
+        <v>1.051893083730781</v>
       </c>
       <c r="E20">
-        <v>1.018643060332177</v>
+        <v>1.051910196875924</v>
       </c>
       <c r="F20">
-        <v>1.026874898806546</v>
+        <v>1.062049104161374</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052125136941597</v>
+        <v>1.041108770205865</v>
       </c>
       <c r="J20">
-        <v>1.030100189572617</v>
+        <v>1.05035371247878</v>
       </c>
       <c r="K20">
-        <v>1.032382504116647</v>
+        <v>1.055212024117047</v>
       </c>
       <c r="L20">
-        <v>1.032365828282982</v>
+        <v>1.055229079447878</v>
       </c>
       <c r="M20">
-        <v>1.040461091951824</v>
+        <v>1.065334093347809</v>
       </c>
       <c r="N20">
-        <v>1.031563049995954</v>
+        <v>1.051845335227755</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.99690748974569</v>
+        <v>1.043120407101091</v>
       </c>
       <c r="D21">
-        <v>1.013881579692423</v>
+        <v>1.050928187553608</v>
       </c>
       <c r="E21">
-        <v>1.013915755938463</v>
+        <v>1.050951331622852</v>
       </c>
       <c r="F21">
-        <v>1.02177885358429</v>
+        <v>1.061015721390456</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050424195166318</v>
+        <v>1.040901723622846</v>
       </c>
       <c r="J21">
-        <v>1.026535078985299</v>
+        <v>1.049655346375009</v>
       </c>
       <c r="K21">
-        <v>1.028604648832645</v>
+        <v>1.054453640657126</v>
       </c>
       <c r="L21">
-        <v>1.028638200502543</v>
+        <v>1.054476701276857</v>
       </c>
       <c r="M21">
-        <v>1.036359041409908</v>
+        <v>1.064505182775847</v>
       </c>
       <c r="N21">
-        <v>1.027992876542678</v>
+        <v>1.051145977364013</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9931947645001047</v>
+        <v>1.042434061587149</v>
       </c>
       <c r="D22">
-        <v>1.010811369013163</v>
+        <v>1.05032205505842</v>
       </c>
       <c r="E22">
-        <v>1.010879197115724</v>
+        <v>1.050349059021293</v>
       </c>
       <c r="F22">
-        <v>1.01850451494447</v>
+        <v>1.060366584222104</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049313573754219</v>
+        <v>1.040769569484857</v>
       </c>
       <c r="J22">
-        <v>1.024236579542062</v>
+        <v>1.049215823830036</v>
       </c>
       <c r="K22">
-        <v>1.026171650572816</v>
+        <v>1.053976658612569</v>
       </c>
       <c r="L22">
-        <v>1.026238172482048</v>
+        <v>1.054003561343175</v>
       </c>
       <c r="M22">
-        <v>1.033718095807652</v>
+        <v>1.063983926334055</v>
       </c>
       <c r="N22">
-        <v>1.02569111296659</v>
+        <v>1.050705830646612</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9951716157608477</v>
+        <v>1.042797884131033</v>
       </c>
       <c r="D23">
-        <v>1.012445384120095</v>
+        <v>1.050643326133775</v>
       </c>
       <c r="E23">
-        <v>1.012495226257006</v>
+        <v>1.050668277442882</v>
       </c>
       <c r="F23">
-        <v>1.020247177051895</v>
+        <v>1.060710647604699</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049906323437664</v>
+        <v>1.040839813961531</v>
       </c>
       <c r="J23">
-        <v>1.025460619044313</v>
+        <v>1.04944886369486</v>
       </c>
       <c r="K23">
-        <v>1.027467065247294</v>
+        <v>1.054229530295567</v>
       </c>
       <c r="L23">
-        <v>1.027515973663325</v>
+        <v>1.054254389961246</v>
       </c>
       <c r="M23">
-        <v>1.035124149294768</v>
+        <v>1.064260262156235</v>
       </c>
       <c r="N23">
-        <v>1.026916890745333</v>
+        <v>1.050939201454774</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002767080242236</v>
+        <v>1.044230707340882</v>
       </c>
       <c r="D24">
-        <v>1.018739059238529</v>
+        <v>1.051909269337393</v>
       </c>
       <c r="E24">
-        <v>1.018721266299995</v>
+        <v>1.051926282525267</v>
       </c>
       <c r="F24">
-        <v>1.02695919011968</v>
+        <v>1.062066438893148</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052152974043771</v>
+        <v>1.0411122078302</v>
       </c>
       <c r="J24">
-        <v>1.030159028185088</v>
+        <v>1.050365413287292</v>
       </c>
       <c r="K24">
-        <v>1.032444897976647</v>
+        <v>1.055224735793322</v>
       </c>
       <c r="L24">
-        <v>1.032427402868465</v>
+        <v>1.055241691569342</v>
       </c>
       <c r="M24">
-        <v>1.040528853897889</v>
+        <v>1.065347988578927</v>
       </c>
       <c r="N24">
-        <v>1.031621972166003</v>
+        <v>1.051857052652757</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011222954603275</v>
+        <v>1.045894398825198</v>
       </c>
       <c r="D25">
-        <v>1.025774866553154</v>
+        <v>1.053380617619916</v>
       </c>
       <c r="E25">
-        <v>1.025684719439463</v>
+        <v>1.053388714773849</v>
       </c>
       <c r="F25">
-        <v>1.034462487801109</v>
+        <v>1.063642291156528</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054588909997201</v>
+        <v>1.041419681565519</v>
       </c>
       <c r="J25">
-        <v>1.035378435941709</v>
+        <v>1.051427105768394</v>
       </c>
       <c r="K25">
-        <v>1.03798581606741</v>
+        <v>1.056378902034078</v>
       </c>
       <c r="L25">
-        <v>1.037896980725036</v>
+        <v>1.056386974659262</v>
       </c>
       <c r="M25">
-        <v>1.046548377111436</v>
+        <v>1.066609816203191</v>
       </c>
       <c r="N25">
-        <v>1.036848792080313</v>
+        <v>1.05292025285896</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_197/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_197/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047222114997</v>
+        <v>1.017705101846314</v>
       </c>
       <c r="D2">
-        <v>1.054555962832996</v>
+        <v>1.031189665709324</v>
       </c>
       <c r="E2">
-        <v>1.054557186606952</v>
+        <v>1.031046359312653</v>
       </c>
       <c r="F2">
-        <v>1.064901180420221</v>
+        <v>1.040237020485888</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041657943018336</v>
+        <v>1.05640181745251</v>
       </c>
       <c r="J2">
-        <v>1.052272332560762</v>
+        <v>1.03936885131432</v>
       </c>
       <c r="K2">
-        <v>1.057298848598588</v>
+        <v>1.042230929299259</v>
       </c>
       <c r="L2">
-        <v>1.057300069001437</v>
+        <v>1.042089471425362</v>
       </c>
       <c r="M2">
-        <v>1.06761586801368</v>
+        <v>1.051162868222657</v>
       </c>
       <c r="N2">
-        <v>1.053766679970322</v>
+        <v>1.040844874300461</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048186582068708</v>
+        <v>1.022271599033238</v>
       </c>
       <c r="D3">
-        <v>1.055410390718746</v>
+        <v>1.035015594053031</v>
       </c>
       <c r="E3">
-        <v>1.055406761641134</v>
+        <v>1.034836152710012</v>
       </c>
       <c r="F3">
-        <v>1.065816379215227</v>
+        <v>1.044317140521674</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041826882224083</v>
+        <v>1.05764636831884</v>
       </c>
       <c r="J3">
-        <v>1.052885111579656</v>
+        <v>1.042172997193253</v>
       </c>
       <c r="K3">
-        <v>1.057966437851084</v>
+        <v>1.045219220567218</v>
       </c>
       <c r="L3">
-        <v>1.057962818048283</v>
+        <v>1.045041887286889</v>
       </c>
       <c r="M3">
-        <v>1.068346111644549</v>
+        <v>1.054412718331428</v>
       </c>
       <c r="N3">
-        <v>1.054380329205709</v>
+        <v>1.043653002388181</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048810849987736</v>
+        <v>1.025165222610151</v>
       </c>
       <c r="D4">
-        <v>1.055963728759096</v>
+        <v>1.037444910531684</v>
       </c>
       <c r="E4">
-        <v>1.055957023272398</v>
+        <v>1.037243174625573</v>
       </c>
       <c r="F4">
-        <v>1.066409090969609</v>
+        <v>1.046907880058541</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041934314458932</v>
+        <v>1.058419551646845</v>
       </c>
       <c r="J4">
-        <v>1.053281184469461</v>
+        <v>1.043946393121183</v>
       </c>
       <c r="K4">
-        <v>1.058398233924547</v>
+        <v>1.047111474754191</v>
       </c>
       <c r="L4">
-        <v>1.058391544712878</v>
+        <v>1.046911962791305</v>
       </c>
       <c r="M4">
-        <v>1.068818510833508</v>
+        <v>1.056471305074815</v>
       </c>
       <c r="N4">
-        <v>1.054776964564448</v>
+        <v>1.04542891674174</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049073337513307</v>
+        <v>1.026367555827785</v>
       </c>
       <c r="D5">
-        <v>1.056196462301687</v>
+        <v>1.038455469742797</v>
       </c>
       <c r="E5">
-        <v>1.056188478737683</v>
+        <v>1.03824461416224</v>
       </c>
       <c r="F5">
-        <v>1.06665838934288</v>
+        <v>1.047985595983625</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04197902752631</v>
+        <v>1.058737058768334</v>
       </c>
       <c r="J5">
-        <v>1.053447588087189</v>
+        <v>1.044682385124819</v>
       </c>
       <c r="K5">
-        <v>1.058579717085143</v>
+        <v>1.047897373585486</v>
       </c>
       <c r="L5">
-        <v>1.058571752467039</v>
+        <v>1.047688779331823</v>
       </c>
       <c r="M5">
-        <v>1.069017078167228</v>
+        <v>1.057326455032536</v>
       </c>
       <c r="N5">
-        <v>1.0549436044944</v>
+        <v>1.04616595393844</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049117412951672</v>
+        <v>1.026568617586597</v>
       </c>
       <c r="D6">
-        <v>1.056235545712303</v>
+        <v>1.038624528350414</v>
       </c>
       <c r="E6">
-        <v>1.056227348447263</v>
+        <v>1.038412156165289</v>
       </c>
       <c r="F6">
-        <v>1.066700254770582</v>
+        <v>1.04816588986069</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041986508553277</v>
+        <v>1.058789931765138</v>
       </c>
       <c r="J6">
-        <v>1.053475521774921</v>
+        <v>1.044805409927572</v>
       </c>
       <c r="K6">
-        <v>1.058610186299473</v>
+        <v>1.048028774652492</v>
       </c>
       <c r="L6">
-        <v>1.058602008413155</v>
+        <v>1.047818669438156</v>
       </c>
       <c r="M6">
-        <v>1.06905041674371</v>
+        <v>1.057469444714047</v>
       </c>
       <c r="N6">
-        <v>1.054971577851173</v>
+        <v>1.046289153450524</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048814357182147</v>
+        <v>1.025181343177387</v>
       </c>
       <c r="D7">
-        <v>1.055966838124651</v>
+        <v>1.03745845534909</v>
       </c>
       <c r="E7">
-        <v>1.055960115500329</v>
+        <v>1.037256596600864</v>
       </c>
       <c r="F7">
-        <v>1.066412421627687</v>
+        <v>1.046922324965899</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041934913691899</v>
+        <v>1.058423823620839</v>
       </c>
       <c r="J7">
-        <v>1.053283408378282</v>
+        <v>1.043956264608852</v>
       </c>
       <c r="K7">
-        <v>1.058400659085343</v>
+        <v>1.047122013327127</v>
       </c>
       <c r="L7">
-        <v>1.058393952772792</v>
+        <v>1.046922379064738</v>
       </c>
       <c r="M7">
-        <v>1.06882116421654</v>
+        <v>1.05648277160831</v>
       </c>
       <c r="N7">
-        <v>1.054779191631474</v>
+        <v>1.045438802248053</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047548020568561</v>
+        <v>1.019261357174051</v>
       </c>
       <c r="D8">
-        <v>1.054844623427797</v>
+        <v>1.032492469830904</v>
       </c>
       <c r="E8">
-        <v>1.054844193961761</v>
+        <v>1.032336721820374</v>
       </c>
       <c r="F8">
-        <v>1.065210368260329</v>
+        <v>1.041626378730942</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041715426216682</v>
+        <v>1.056829164614946</v>
       </c>
       <c r="J8">
-        <v>1.052479513787404</v>
+        <v>1.040325209179251</v>
       </c>
       <c r="K8">
-        <v>1.057524499876415</v>
+        <v>1.043249587226323</v>
       </c>
       <c r="L8">
-        <v>1.057524071564523</v>
+        <v>1.04309578693406</v>
       </c>
       <c r="M8">
-        <v>1.067862680823009</v>
+        <v>1.05227053827629</v>
       </c>
       <c r="N8">
-        <v>1.053974155418069</v>
+        <v>1.041802590303255</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045318095953073</v>
+        <v>1.008336707585135</v>
       </c>
       <c r="D9">
-        <v>1.052870766366006</v>
+        <v>1.023369838238718</v>
       </c>
       <c r="E9">
-        <v>1.052881914531584</v>
+        <v>1.023304020493891</v>
       </c>
       <c r="F9">
-        <v>1.063096217405814</v>
+        <v>1.031897672665365</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041314273059709</v>
+        <v>1.053765899329893</v>
       </c>
       <c r="J9">
-        <v>1.051059653394548</v>
+        <v>1.033598471348241</v>
       </c>
       <c r="K9">
-        <v>1.055979274175746</v>
+        <v>1.036094802739506</v>
       </c>
       <c r="L9">
-        <v>1.055990387238473</v>
+        <v>1.036029991611552</v>
       </c>
       <c r="M9">
-        <v>1.066172865579914</v>
+        <v>1.044493594646583</v>
       </c>
       <c r="N9">
-        <v>1.052552278660595</v>
+        <v>1.035066299732957</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043832558219635</v>
+        <v>1.00068628915322</v>
       </c>
       <c r="D10">
-        <v>1.05155737975778</v>
+        <v>1.017012446513625</v>
       </c>
       <c r="E10">
-        <v>1.051576575148722</v>
+        <v>1.017012943761747</v>
       </c>
       <c r="F10">
-        <v>1.061689568558229</v>
+        <v>1.025117828854523</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04103720512478</v>
+        <v>1.051542617565463</v>
       </c>
       <c r="J10">
-        <v>1.050110923134937</v>
+        <v>1.028872704628904</v>
       </c>
       <c r="K10">
-        <v>1.054948299240238</v>
+        <v>1.031081182705682</v>
       </c>
       <c r="L10">
-        <v>1.054967428265823</v>
+        <v>1.031081671360183</v>
       </c>
       <c r="M10">
-        <v>1.065045824232682</v>
+        <v>1.039047914227382</v>
       </c>
       <c r="N10">
-        <v>1.051602201095195</v>
+        <v>1.030333821882826</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043189570837474</v>
+        <v>0.9972777337665722</v>
       </c>
       <c r="D11">
-        <v>1.050989282256328</v>
+        <v>1.014188070993045</v>
       </c>
       <c r="E11">
-        <v>1.051012040298942</v>
+        <v>1.014218921529407</v>
       </c>
       <c r="F11">
-        <v>1.061081151458018</v>
+        <v>1.022105719526071</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040914955379068</v>
+        <v>1.050534325668107</v>
       </c>
       <c r="J11">
-        <v>1.049699612968577</v>
+        <v>1.026764202359356</v>
       </c>
       <c r="K11">
-        <v>1.054501693238026</v>
+        <v>1.028847291026654</v>
       </c>
       <c r="L11">
-        <v>1.054524369551005</v>
+        <v>1.028877580775228</v>
       </c>
       <c r="M11">
-        <v>1.064557699221326</v>
+        <v>1.036622457512625</v>
       </c>
       <c r="N11">
-        <v>1.051190306821221</v>
+        <v>1.028222325298206</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.042950776609083</v>
+        <v>0.9959964371297069</v>
       </c>
       <c r="D12">
-        <v>1.050778358089694</v>
+        <v>1.013127650207661</v>
       </c>
       <c r="E12">
-        <v>1.050802451213908</v>
+        <v>1.013170033483348</v>
       </c>
       <c r="F12">
-        <v>1.060855260397048</v>
+        <v>1.020974802905266</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040869204840862</v>
+        <v>1.050152708011397</v>
       </c>
       <c r="J12">
-        <v>1.049546759304024</v>
+        <v>1.025971206745299</v>
       </c>
       <c r="K12">
-        <v>1.054335776789357</v>
+        <v>1.02800759397861</v>
       </c>
       <c r="L12">
-        <v>1.054359782190234</v>
+        <v>1.02804919250417</v>
       </c>
       <c r="M12">
-        <v>1.064376372645946</v>
+        <v>1.035710897049729</v>
       </c>
       <c r="N12">
-        <v>1.051037236086931</v>
+        <v>1.02742820353942</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043001996962423</v>
+        <v>0.996271981308518</v>
       </c>
       <c r="D13">
-        <v>1.050823597831629</v>
+        <v>1.013355635947657</v>
       </c>
       <c r="E13">
-        <v>1.050847404044198</v>
+        <v>1.013395533525363</v>
       </c>
       <c r="F13">
-        <v>1.060903710153411</v>
+        <v>1.021217945457176</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040879033931932</v>
+        <v>1.050234891362534</v>
       </c>
       <c r="J13">
-        <v>1.049579550302035</v>
+        <v>1.026141758337049</v>
       </c>
       <c r="K13">
-        <v>1.054371367640744</v>
+        <v>1.028188169131397</v>
       </c>
       <c r="L13">
-        <v>1.054395087428817</v>
+        <v>1.028227330885743</v>
       </c>
       <c r="M13">
-        <v>1.064415268482443</v>
+        <v>1.035906919750368</v>
       </c>
       <c r="N13">
-        <v>1.05107007365192</v>
+        <v>1.027598997333993</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043169831213122</v>
+        <v>0.997172136462275</v>
       </c>
       <c r="D14">
-        <v>1.050971845303861</v>
+        <v>1.014100650662988</v>
       </c>
       <c r="E14">
-        <v>1.05099471346488</v>
+        <v>1.014132449159666</v>
       </c>
       <c r="F14">
-        <v>1.061062477141274</v>
+        <v>1.022012487800572</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040911180588985</v>
+        <v>1.050502927196491</v>
       </c>
       <c r="J14">
-        <v>1.049686979556657</v>
+        <v>1.0266988558482</v>
       </c>
       <c r="K14">
-        <v>1.054487979079523</v>
+        <v>1.028778086818886</v>
       </c>
       <c r="L14">
-        <v>1.054510765021385</v>
+        <v>1.028809306411371</v>
       </c>
       <c r="M14">
-        <v>1.064542711013942</v>
+        <v>1.036547327695762</v>
       </c>
       <c r="N14">
-        <v>1.051177655468407</v>
+        <v>1.028156885987509</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043273244747562</v>
+        <v>0.9977247116311493</v>
       </c>
       <c r="D15">
-        <v>1.051063197764335</v>
+        <v>1.014558160920313</v>
       </c>
       <c r="E15">
-        <v>1.05108548951876</v>
+        <v>1.014585003891971</v>
       </c>
       <c r="F15">
-        <v>1.06116031229608</v>
+        <v>1.022500411279908</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040930941966827</v>
+        <v>1.050667125455589</v>
       </c>
       <c r="J15">
-        <v>1.049753160387724</v>
+        <v>1.027040788679899</v>
       </c>
       <c r="K15">
-        <v>1.054559823675443</v>
+        <v>1.029140224087319</v>
       </c>
       <c r="L15">
-        <v>1.054582035763403</v>
+        <v>1.029166582278884</v>
       </c>
       <c r="M15">
-        <v>1.064621230581192</v>
+        <v>1.036940478839047</v>
       </c>
       <c r="N15">
-        <v>1.051243930283845</v>
+        <v>1.028499304403049</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043875236727373</v>
+        <v>1.00091041651049</v>
       </c>
       <c r="D16">
-        <v>1.051595095426352</v>
+        <v>1.017198335283777</v>
       </c>
       <c r="E16">
-        <v>1.051614056023474</v>
+        <v>1.017196853609294</v>
       </c>
       <c r="F16">
-        <v>1.061729961449298</v>
+        <v>1.025316072169552</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041045270507265</v>
+        <v>1.05160855357677</v>
       </c>
       <c r="J16">
-        <v>1.050138209902277</v>
+        <v>1.029011289907226</v>
       </c>
       <c r="K16">
-        <v>1.05497793515492</v>
+        <v>1.031228072749763</v>
       </c>
       <c r="L16">
-        <v>1.054996830366821</v>
+        <v>1.03122661659519</v>
       </c>
       <c r="M16">
-        <v>1.065078217287722</v>
+        <v>1.039207420523634</v>
       </c>
       <c r="N16">
-        <v>1.051629526612875</v>
+        <v>1.030472603968139</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044252920645334</v>
+        <v>1.002882507348446</v>
       </c>
       <c r="D17">
-        <v>1.051928904331045</v>
+        <v>1.018834893480929</v>
       </c>
       <c r="E17">
-        <v>1.051945796313327</v>
+        <v>1.018816091362707</v>
       </c>
       <c r="F17">
-        <v>1.062087467920679</v>
+        <v>1.02706139303188</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041116376474058</v>
+        <v>1.052186713017098</v>
       </c>
       <c r="J17">
-        <v>1.050379607085373</v>
+        <v>1.030230363945557</v>
       </c>
       <c r="K17">
-        <v>1.055240156073583</v>
+        <v>1.032520546087395</v>
       </c>
       <c r="L17">
-        <v>1.055256991131031</v>
+        <v>1.032502058125987</v>
       </c>
       <c r="M17">
-        <v>1.065364844669087</v>
+        <v>1.040611011044851</v>
       </c>
       <c r="N17">
-        <v>1.051871266607659</v>
+        <v>1.031693409231434</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044473242341579</v>
+        <v>1.004023601349963</v>
       </c>
       <c r="D18">
-        <v>1.052123667954738</v>
+        <v>1.019782603783992</v>
       </c>
       <c r="E18">
-        <v>1.052139360888448</v>
+        <v>1.019753856171918</v>
       </c>
       <c r="F18">
-        <v>1.062296060063983</v>
+        <v>1.02807208161557</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041157631593645</v>
+        <v>1.052519561549963</v>
       </c>
       <c r="J18">
-        <v>1.05052036131659</v>
+        <v>1.030935458949709</v>
       </c>
       <c r="K18">
-        <v>1.055393086983865</v>
+        <v>1.033268382566783</v>
       </c>
       <c r="L18">
-        <v>1.05540872775204</v>
+        <v>1.033240106743625</v>
       </c>
       <c r="M18">
-        <v>1.065532019011689</v>
+        <v>1.041423230487566</v>
       </c>
       <c r="N18">
-        <v>1.05201222072603</v>
+        <v>1.032399505551368</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044548370571681</v>
+        <v>1.004411149059952</v>
       </c>
       <c r="D19">
-        <v>1.052190087207793</v>
+        <v>1.020104600449799</v>
       </c>
       <c r="E19">
-        <v>1.052205372575356</v>
+        <v>1.020072488000022</v>
       </c>
       <c r="F19">
-        <v>1.062367195523086</v>
+        <v>1.028415475218613</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041171661224253</v>
+        <v>1.052632318116802</v>
       </c>
       <c r="J19">
-        <v>1.050568346590109</v>
+        <v>1.031174878830293</v>
       </c>
       <c r="K19">
-        <v>1.055445229368808</v>
+        <v>1.033522364539819</v>
       </c>
       <c r="L19">
-        <v>1.055460464164235</v>
+        <v>1.03349077586435</v>
       </c>
       <c r="M19">
-        <v>1.065589019317288</v>
+        <v>1.041699093497185</v>
       </c>
       <c r="N19">
-        <v>1.05206027414414</v>
+        <v>1.032639265435644</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044212396137608</v>
+        <v>1.002671877188103</v>
       </c>
       <c r="D20">
-        <v>1.051893083730781</v>
+        <v>1.018660020477421</v>
       </c>
       <c r="E20">
-        <v>1.051910196875924</v>
+        <v>1.018643060332176</v>
       </c>
       <c r="F20">
-        <v>1.062049104161374</v>
+        <v>1.026874898806546</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041108770205865</v>
+        <v>1.052125136941597</v>
       </c>
       <c r="J20">
-        <v>1.05035371247878</v>
+        <v>1.030100189572617</v>
       </c>
       <c r="K20">
-        <v>1.055212024117047</v>
+        <v>1.032382504116646</v>
       </c>
       <c r="L20">
-        <v>1.055229079447878</v>
+        <v>1.032365828282981</v>
       </c>
       <c r="M20">
-        <v>1.065334093347809</v>
+        <v>1.040461091951824</v>
       </c>
       <c r="N20">
-        <v>1.051845335227755</v>
+        <v>1.031563049995953</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043120407101091</v>
+        <v>0.9969074897456895</v>
       </c>
       <c r="D21">
-        <v>1.050928187553608</v>
+        <v>1.013881579692423</v>
       </c>
       <c r="E21">
-        <v>1.050951331622852</v>
+        <v>1.013915755938463</v>
       </c>
       <c r="F21">
-        <v>1.061015721390456</v>
+        <v>1.021778853584289</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040901723622846</v>
+        <v>1.050424195166318</v>
       </c>
       <c r="J21">
-        <v>1.049655346375009</v>
+        <v>1.026535078985298</v>
       </c>
       <c r="K21">
-        <v>1.054453640657126</v>
+        <v>1.028604648832645</v>
       </c>
       <c r="L21">
-        <v>1.054476701276857</v>
+        <v>1.028638200502542</v>
       </c>
       <c r="M21">
-        <v>1.064505182775847</v>
+        <v>1.036359041409907</v>
       </c>
       <c r="N21">
-        <v>1.051145977364013</v>
+        <v>1.027992876542677</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.042434061587149</v>
+        <v>0.9931947645001038</v>
       </c>
       <c r="D22">
-        <v>1.05032205505842</v>
+        <v>1.010811369013162</v>
       </c>
       <c r="E22">
-        <v>1.050349059021293</v>
+        <v>1.010879197115723</v>
       </c>
       <c r="F22">
-        <v>1.060366584222104</v>
+        <v>1.018504514944469</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040769569484857</v>
+        <v>1.049313573754218</v>
       </c>
       <c r="J22">
-        <v>1.049215823830036</v>
+        <v>1.024236579542062</v>
       </c>
       <c r="K22">
-        <v>1.053976658612569</v>
+        <v>1.026171650572815</v>
       </c>
       <c r="L22">
-        <v>1.054003561343175</v>
+        <v>1.026238172482047</v>
       </c>
       <c r="M22">
-        <v>1.063983926334055</v>
+        <v>1.033718095807652</v>
       </c>
       <c r="N22">
-        <v>1.050705830646612</v>
+        <v>1.025691112966589</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042797884131033</v>
+        <v>0.9951716157608479</v>
       </c>
       <c r="D23">
-        <v>1.050643326133775</v>
+        <v>1.012445384120095</v>
       </c>
       <c r="E23">
-        <v>1.050668277442882</v>
+        <v>1.012495226257006</v>
       </c>
       <c r="F23">
-        <v>1.060710647604699</v>
+        <v>1.020247177051895</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040839813961531</v>
+        <v>1.049906323437664</v>
       </c>
       <c r="J23">
-        <v>1.04944886369486</v>
+        <v>1.025460619044313</v>
       </c>
       <c r="K23">
-        <v>1.054229530295567</v>
+        <v>1.027467065247295</v>
       </c>
       <c r="L23">
-        <v>1.054254389961246</v>
+        <v>1.027515973663325</v>
       </c>
       <c r="M23">
-        <v>1.064260262156235</v>
+        <v>1.035124149294768</v>
       </c>
       <c r="N23">
-        <v>1.050939201454774</v>
+        <v>1.026916890745333</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044230707340882</v>
+        <v>1.002767080242235</v>
       </c>
       <c r="D24">
-        <v>1.051909269337393</v>
+        <v>1.018739059238529</v>
       </c>
       <c r="E24">
-        <v>1.051926282525267</v>
+        <v>1.018721266299995</v>
       </c>
       <c r="F24">
-        <v>1.062066438893148</v>
+        <v>1.02695919011968</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0411122078302</v>
+        <v>1.052152974043771</v>
       </c>
       <c r="J24">
-        <v>1.050365413287292</v>
+        <v>1.030159028185088</v>
       </c>
       <c r="K24">
-        <v>1.055224735793322</v>
+        <v>1.032444897976646</v>
       </c>
       <c r="L24">
-        <v>1.055241691569342</v>
+        <v>1.032427402868465</v>
       </c>
       <c r="M24">
-        <v>1.065347988578927</v>
+        <v>1.040528853897889</v>
       </c>
       <c r="N24">
-        <v>1.051857052652757</v>
+        <v>1.031621972166003</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045894398825198</v>
+        <v>1.011222954603274</v>
       </c>
       <c r="D25">
-        <v>1.053380617619916</v>
+        <v>1.025774866553153</v>
       </c>
       <c r="E25">
-        <v>1.053388714773849</v>
+        <v>1.025684719439462</v>
       </c>
       <c r="F25">
-        <v>1.063642291156528</v>
+        <v>1.034462487801108</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041419681565519</v>
+        <v>1.054588909997201</v>
       </c>
       <c r="J25">
-        <v>1.051427105768394</v>
+        <v>1.035378435941708</v>
       </c>
       <c r="K25">
-        <v>1.056378902034078</v>
+        <v>1.03798581606741</v>
       </c>
       <c r="L25">
-        <v>1.056386974659262</v>
+        <v>1.037896980725035</v>
       </c>
       <c r="M25">
-        <v>1.066609816203191</v>
+        <v>1.046548377111435</v>
       </c>
       <c r="N25">
-        <v>1.05292025285896</v>
+        <v>1.036848792080312</v>
       </c>
     </row>
   </sheetData>
